--- a/data/trans_orig/P16A19_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A19_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADDF8A67-43DF-4081-A37A-5F5154B54BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{18DCB668-9888-4245-AD0D-901908C622AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5240ED44-BC7D-4DF7-B704-BB24A1361D0B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{78825A49-2733-4E05-96D0-F063D34F2814}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="241">
   <si>
     <t>Población que ha consumido medicinas para bajar la fiebre en las dos últimas semanas en 2007 (Tasa respuesta: 49,79%)</t>
   </si>
@@ -455,241 +455,277 @@
     <t>0,69%</t>
   </si>
   <si>
-    <t>3,67%</t>
+    <t>4,27%</t>
   </si>
   <si>
     <t>1,04%</t>
   </si>
   <si>
-    <t>3,36%</t>
+    <t>3,28%</t>
   </si>
   <si>
     <t>0,86%</t>
   </si>
   <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
     <t>2,4%</t>
   </si>
   <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
   </si>
   <si>
     <t>97,6%</t>
   </si>
   <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
   </si>
   <si>
     <t>1,8%</t>
   </si>
   <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
   </si>
   <si>
     <t>98,2%</t>
   </si>
   <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
   </si>
   <si>
     <t>1,06%</t>
   </si>
   <si>
-    <t>1,52%</t>
+    <t>0,75%</t>
   </si>
   <si>
     <t>1,43%</t>
@@ -698,34 +734,34 @@
     <t>1,12%</t>
   </si>
   <si>
-    <t>1,81%</t>
-  </si>
-  <si>
     <t>1,26%</t>
   </si>
   <si>
-    <t>1,55%</t>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
   </si>
   <si>
     <t>98,94%</t>
   </si>
   <si>
-    <t>98,48%</t>
+    <t>99,25%</t>
   </si>
   <si>
     <t>98,57%</t>
   </si>
   <si>
-    <t>98,19%</t>
-  </si>
-  <si>
     <t>98,88%</t>
   </si>
   <si>
     <t>98,74%</t>
   </si>
   <si>
-    <t>98,45%</t>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
   </si>
 </sst>
 </file>
@@ -1137,7 +1173,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17A821AE-16EE-4412-AFBD-F8B2CD817026}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75D717BB-F182-4AFE-A84D-D46486AA16B0}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2356,7 +2392,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{698C1E6A-EE5F-415F-ACF0-4FF72C57FC3F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D445EC9-8013-4C99-93DF-C4481962BF60}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3575,7 +3611,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92479B8E-8E13-4429-9E5A-E8004EF48304}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A52407C9-3D7F-4839-B005-F78B15B7050F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4794,7 +4830,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{602B6235-D2E2-41E5-BE35-31E462EA98A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBB311E2-7A5F-4C39-9517-DD27CBFE3434}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5076,10 +5112,10 @@
         <v>149</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -5088,10 +5124,10 @@
         <v>4221</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>152</v>
+        <v>25</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>153</v>
@@ -5130,7 +5166,7 @@
         <v>158</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>107</v>
+        <v>159</v>
       </c>
       <c r="H8" s="7">
         <v>456</v>
@@ -5139,13 +5175,13 @@
         <v>494356</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>161</v>
+        <v>28</v>
       </c>
       <c r="M8" s="7">
         <v>753</v>
@@ -5246,10 +5282,10 @@
         <v>167</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>128</v>
+        <v>169</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -5258,13 +5294,13 @@
         <v>11595</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5279,10 +5315,10 @@
         <v>553647</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>135</v>
@@ -5294,13 +5330,13 @@
         <v>575486</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="M11" s="7">
         <v>1377</v>
@@ -5309,13 +5345,13 @@
         <v>1129132</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5383,13 +5419,13 @@
         <v>10159</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
@@ -5398,13 +5434,13 @@
         <v>6589</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="M13" s="7">
         <v>22</v>
@@ -5413,13 +5449,13 @@
         <v>16749</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5434,13 +5470,13 @@
         <v>713831</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="H14" s="7">
         <v>1129</v>
@@ -5449,28 +5485,28 @@
         <v>740672</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="M14" s="7">
         <v>1784</v>
       </c>
       <c r="N14" s="7">
-        <v>1454503</v>
+        <v>1454502</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5512,7 +5548,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -5538,13 +5574,13 @@
         <v>6276</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="H16" s="7">
         <v>24</v>
@@ -5553,13 +5589,13 @@
         <v>13584</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="M16" s="7">
         <v>32</v>
@@ -5568,13 +5604,13 @@
         <v>19860</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>89</v>
+        <v>201</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5589,13 +5625,13 @@
         <v>592810</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="H17" s="7">
         <v>976</v>
@@ -5604,13 +5640,13 @@
         <v>579992</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="M17" s="7">
         <v>1630</v>
@@ -5619,13 +5655,13 @@
         <v>1172802</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>92</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5693,13 +5729,13 @@
         <v>5561</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>39</v>
+        <v>212</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="H19" s="7">
         <v>32</v>
@@ -5708,13 +5744,13 @@
         <v>18480</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>180</v>
+        <v>214</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="M19" s="7">
         <v>41</v>
@@ -5723,13 +5759,13 @@
         <v>24041</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5741,16 +5777,16 @@
         <v>1019</v>
       </c>
       <c r="D20" s="7">
-        <v>692193</v>
+        <v>692194</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>42</v>
+        <v>221</v>
       </c>
       <c r="H20" s="7">
         <v>1673</v>
@@ -5759,13 +5795,13 @@
         <v>1006535</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="M20" s="7">
         <v>2692</v>
@@ -5774,13 +5810,13 @@
         <v>1698729</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5792,7 +5828,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -5848,13 +5884,13 @@
         <v>35992</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>179</v>
+        <v>228</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>216</v>
+        <v>130</v>
       </c>
       <c r="H22" s="7">
         <v>86</v>
@@ -5863,13 +5899,13 @@
         <v>54545</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="M22" s="7">
         <v>123</v>
@@ -5878,13 +5914,13 @@
         <v>90537</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>168</v>
+        <v>232</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5899,13 +5935,13 @@
         <v>3348166</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>223</v>
+        <v>133</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>188</v>
+        <v>235</v>
       </c>
       <c r="H23" s="7">
         <v>5273</v>
@@ -5914,28 +5950,28 @@
         <v>3748317</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="M23" s="7">
         <v>8611</v>
       </c>
       <c r="N23" s="7">
-        <v>7096482</v>
+        <v>7096483</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>172</v>
+        <v>240</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5977,7 +6013,7 @@
         <v>8734</v>
       </c>
       <c r="N24" s="7">
-        <v>7187019</v>
+        <v>7187020</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/P16A19_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A19_2023-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18DCB668-9888-4245-AD0D-901908C622AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEE0F939-5889-4DE8-90D4-9FAA9B81E0BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{78825A49-2733-4E05-96D0-F063D34F2814}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6D0AA59E-5B2F-426F-81EB-0B5442D5F52F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -350,7 +350,7 @@
     <t>99,93%</t>
   </si>
   <si>
-    <t>Población que ha consumido medicinas para bajar la fiebre en las dos últimas semanas en 2015 (Tasa respuesta: 43,19%)</t>
+    <t>Población que ha consumido medicinas para bajar la fiebre en las dos últimas semanas en 2016 (Tasa respuesta: 43,19%)</t>
   </si>
   <si>
     <t>0,62%</t>
@@ -1173,7 +1173,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75D717BB-F182-4AFE-A84D-D46486AA16B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B63CCE-B111-49FB-815F-9D2AFA2D4A90}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2392,7 +2392,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D445EC9-8013-4C99-93DF-C4481962BF60}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C15960-CBFB-42CB-98E9-C56E3AE56F30}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3611,7 +3611,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A52407C9-3D7F-4839-B005-F78B15B7050F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3065486-8F0E-49AA-A762-763B795EC0F1}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4248,7 +4248,7 @@
         <v>283</v>
       </c>
       <c r="D14" s="7">
-        <v>312667</v>
+        <v>312668</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
@@ -4299,7 +4299,7 @@
         <v>283</v>
       </c>
       <c r="D15" s="7">
-        <v>312667</v>
+        <v>312668</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -4830,7 +4830,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBB311E2-7A5F-4C39-9517-DD27CBFE3434}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1770C4A-0CF1-4254-94C1-B37218226069}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P16A19_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A19_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEE0F939-5889-4DE8-90D4-9FAA9B81E0BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{114D1881-6568-4D0D-B36D-3592C90AE70D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6D0AA59E-5B2F-426F-81EB-0B5442D5F52F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6DFB7207-EF85-40BE-8E31-486A112218AC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="229">
   <si>
     <t>Población que ha consumido medicinas para bajar la fiebre en las dos últimas semanas en 2007 (Tasa respuesta: 49,79%)</t>
   </si>
@@ -455,277 +455,241 @@
     <t>0,69%</t>
   </si>
   <si>
-    <t>4,27%</t>
+    <t>3,67%</t>
   </si>
   <si>
     <t>1,04%</t>
   </si>
   <si>
-    <t>3,28%</t>
+    <t>3,36%</t>
   </si>
   <si>
     <t>0,86%</t>
   </si>
   <si>
-    <t>2,34%</t>
+    <t>2,4%</t>
   </si>
   <si>
     <t>99,31%</t>
   </si>
   <si>
-    <t>95,73%</t>
+    <t>96,33%</t>
   </si>
   <si>
     <t>98,96%</t>
   </si>
   <si>
-    <t>96,72%</t>
+    <t>96,64%</t>
   </si>
   <si>
     <t>99,14%</t>
   </si>
   <si>
-    <t>97,66%</t>
+    <t>97,6%</t>
   </si>
   <si>
     <t>1,82%</t>
   </si>
   <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
     <t>0,61%</t>
   </si>
   <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
+    <t>2,48%</t>
   </si>
   <si>
     <t>98,18%</t>
   </si>
   <si>
-    <t>95,88%</t>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
   </si>
   <si>
     <t>99,39%</t>
   </si>
   <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
     <t>0,65%</t>
   </si>
   <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
     <t>1,93%</t>
   </si>
   <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
   </si>
   <si>
     <t>98,07%</t>
   </si>
   <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
+    <t>99,04%</t>
   </si>
   <si>
     <t>1,06%</t>
   </si>
   <si>
-    <t>0,75%</t>
+    <t>1,52%</t>
   </si>
   <si>
     <t>1,43%</t>
@@ -734,34 +698,34 @@
     <t>1,12%</t>
   </si>
   <si>
+    <t>1,81%</t>
+  </si>
+  <si>
     <t>1,26%</t>
   </si>
   <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
+    <t>1,55%</t>
   </si>
   <si>
     <t>98,94%</t>
   </si>
   <si>
-    <t>99,25%</t>
+    <t>98,48%</t>
   </si>
   <si>
     <t>98,57%</t>
   </si>
   <si>
+    <t>98,19%</t>
+  </si>
+  <si>
     <t>98,88%</t>
   </si>
   <si>
     <t>98,74%</t>
   </si>
   <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
+    <t>98,45%</t>
   </si>
 </sst>
 </file>
@@ -1173,7 +1137,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B63CCE-B111-49FB-815F-9D2AFA2D4A90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38F5BA83-01DD-45C9-8680-3FB8713F1AB6}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2392,7 +2356,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C15960-CBFB-42CB-98E9-C56E3AE56F30}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C55F336-8696-4571-B035-A71F10C0C10C}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3611,7 +3575,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3065486-8F0E-49AA-A762-763B795EC0F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6711879-7DDA-4B13-82AD-4F2B0B8D0243}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4248,7 +4212,7 @@
         <v>283</v>
       </c>
       <c r="D14" s="7">
-        <v>312668</v>
+        <v>312667</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
@@ -4299,7 +4263,7 @@
         <v>283</v>
       </c>
       <c r="D15" s="7">
-        <v>312668</v>
+        <v>312667</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -4830,7 +4794,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1770C4A-0CF1-4254-94C1-B37218226069}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AD1620-D074-4804-BBA9-FDBC6A359EBC}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5112,10 +5076,10 @@
         <v>149</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -5124,10 +5088,10 @@
         <v>4221</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>153</v>
@@ -5166,7 +5130,7 @@
         <v>158</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>159</v>
+        <v>107</v>
       </c>
       <c r="H8" s="7">
         <v>456</v>
@@ -5175,13 +5139,13 @@
         <v>494356</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="M8" s="7">
         <v>753</v>
@@ -5282,10 +5246,10 @@
         <v>167</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -5294,13 +5258,13 @@
         <v>11595</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5315,10 +5279,10 @@
         <v>553647</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>135</v>
@@ -5330,13 +5294,13 @@
         <v>575486</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>175</v>
+        <v>131</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="M11" s="7">
         <v>1377</v>
@@ -5345,13 +5309,13 @@
         <v>1129132</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5419,13 +5383,13 @@
         <v>10159</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
@@ -5434,13 +5398,13 @@
         <v>6589</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="M13" s="7">
         <v>22</v>
@@ -5449,13 +5413,13 @@
         <v>16749</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5470,13 +5434,13 @@
         <v>713831</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="H14" s="7">
         <v>1129</v>
@@ -5485,28 +5449,28 @@
         <v>740672</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="M14" s="7">
         <v>1784</v>
       </c>
       <c r="N14" s="7">
-        <v>1454502</v>
+        <v>1454503</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5548,7 +5512,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471251</v>
+        <v>1471252</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -5574,13 +5538,13 @@
         <v>6276</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="H16" s="7">
         <v>24</v>
@@ -5589,13 +5553,13 @@
         <v>13584</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="M16" s="7">
         <v>32</v>
@@ -5604,13 +5568,13 @@
         <v>19860</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>201</v>
+        <v>89</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5625,13 +5589,13 @@
         <v>592810</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="H17" s="7">
         <v>976</v>
@@ -5640,13 +5604,13 @@
         <v>579992</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="M17" s="7">
         <v>1630</v>
@@ -5655,13 +5619,13 @@
         <v>1172802</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>210</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5729,13 +5693,13 @@
         <v>5561</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>212</v>
+        <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="H19" s="7">
         <v>32</v>
@@ -5744,13 +5708,13 @@
         <v>18480</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>214</v>
+        <v>180</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="M19" s="7">
         <v>41</v>
@@ -5759,13 +5723,13 @@
         <v>24041</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5777,16 +5741,16 @@
         <v>1019</v>
       </c>
       <c r="D20" s="7">
-        <v>692194</v>
+        <v>692193</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>221</v>
+        <v>42</v>
       </c>
       <c r="H20" s="7">
         <v>1673</v>
@@ -5795,13 +5759,13 @@
         <v>1006535</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>222</v>
+        <v>187</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="M20" s="7">
         <v>2692</v>
@@ -5810,13 +5774,13 @@
         <v>1698729</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5828,7 +5792,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697755</v>
+        <v>697754</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -5884,13 +5848,13 @@
         <v>35992</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>228</v>
+        <v>179</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>130</v>
+        <v>216</v>
       </c>
       <c r="H22" s="7">
         <v>86</v>
@@ -5899,13 +5863,13 @@
         <v>54545</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="M22" s="7">
         <v>123</v>
@@ -5914,13 +5878,13 @@
         <v>90537</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>232</v>
+        <v>168</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5935,13 +5899,13 @@
         <v>3348166</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>133</v>
+        <v>223</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>235</v>
+        <v>188</v>
       </c>
       <c r="H23" s="7">
         <v>5273</v>
@@ -5950,28 +5914,28 @@
         <v>3748317</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="M23" s="7">
         <v>8611</v>
       </c>
       <c r="N23" s="7">
-        <v>7096483</v>
+        <v>7096482</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>240</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6013,7 +5977,7 @@
         <v>8734</v>
       </c>
       <c r="N24" s="7">
-        <v>7187020</v>
+        <v>7187019</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/P16A19_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A19_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{114D1881-6568-4D0D-B36D-3592C90AE70D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CAA0C9BE-ACBE-448D-B96F-2A461314215B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6DFB7207-EF85-40BE-8E31-486A112218AC}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A5629D0D-D242-4172-8A6C-9A682713DF60}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="254">
   <si>
     <t>Población que ha consumido medicinas para bajar la fiebre en las dos últimas semanas en 2007 (Tasa respuesta: 49,79%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -107,7 +107,7 @@
     <t>99,73%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>0,34%</t>
@@ -128,7 +128,7 @@
     <t>99,78%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>0,44%</t>
@@ -149,7 +149,7 @@
     <t>99,76%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>0,66%</t>
@@ -170,7 +170,7 @@
     <t>99,62%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>1,77%</t>
@@ -191,541 +191,616 @@
     <t>99,07%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para bajar la fiebre en las dos últimas semanas en 2012 (Tasa respuesta: 39,99%)</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para bajar la fiebre en las dos últimas semanas en 2016 (Tasa respuesta: 43,19%)</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para bajar la fiebre en las dos últimas semanas en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
   </si>
   <si>
     <t>1,36%</t>
   </si>
   <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
   </si>
   <si>
     <t>98,64%</t>
   </si>
   <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para bajar la fiebre en las dos últimas semanas en 2012 (Tasa respuesta: 39,99%)</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para bajar la fiebre en las dos últimas semanas en 2016 (Tasa respuesta: 43,19%)</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para bajar la fiebre en las dos últimas semanas en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
   </si>
 </sst>
 </file>
@@ -1137,8 +1212,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38F5BA83-01DD-45C9-8680-3FB8713F1AB6}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F05B63C6-687B-4497-90FD-4EF6AE172E0A}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2081,10 +2156,10 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="D20" s="7">
-        <v>83407</v>
+        <v>61094</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
@@ -2096,10 +2171,10 @@
         <v>19</v>
       </c>
       <c r="H20" s="7">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="I20" s="7">
-        <v>55860</v>
+        <v>33561</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>17</v>
@@ -2111,10 +2186,10 @@
         <v>19</v>
       </c>
       <c r="M20" s="7">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="N20" s="7">
-        <v>139267</v>
+        <v>94655</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>17</v>
@@ -2132,10 +2207,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="D21" s="7">
-        <v>83407</v>
+        <v>61094</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -2147,10 +2222,10 @@
         <v>19</v>
       </c>
       <c r="H21" s="7">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="I21" s="7">
-        <v>55860</v>
+        <v>33561</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -2162,10 +2237,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="N21" s="7">
-        <v>139267</v>
+        <v>94655</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -2179,7 +2254,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2197,7 +2272,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2212,7 +2287,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -2227,7 +2302,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2236,46 +2311,46 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>1878</v>
+        <v>23</v>
       </c>
       <c r="D23" s="7">
-        <v>1947662</v>
+        <v>22313</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H23" s="7">
-        <v>1364</v>
+        <v>19</v>
       </c>
       <c r="I23" s="7">
-        <v>1399722</v>
+        <v>22299</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M23" s="7">
-        <v>3242</v>
+        <v>42</v>
       </c>
       <c r="N23" s="7">
-        <v>3347384</v>
+        <v>44612</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>19</v>
@@ -2287,63 +2362,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>23</v>
+      </c>
+      <c r="D24" s="7">
+        <v>22313</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="7">
+        <v>19</v>
+      </c>
+      <c r="I24" s="7">
+        <v>22299</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>42</v>
+      </c>
+      <c r="N24" s="7">
+        <v>44612</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M25" s="7">
+        <v>0</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
         <v>1878</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D26" s="7">
         <v>1947662</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="7">
         <v>1364</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I26" s="7">
         <v>1399722</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M26" s="7">
         <v>3242</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N26" s="7">
         <v>3347384</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>63</v>
+      <c r="O26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>1878</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1947662</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="7">
+        <v>1364</v>
+      </c>
+      <c r="I27" s="7">
+        <v>1399722</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
+        <v>3242</v>
+      </c>
+      <c r="N27" s="7">
+        <v>3347384</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2356,8 +2587,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C55F336-8696-4571-B035-A71F10C0C10C}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F8DC59-DEF7-4E16-B2F1-14D6CB7BAF0A}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2373,7 +2604,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2486,7 +2717,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2501,7 +2732,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2516,7 +2747,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2534,7 +2765,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -2549,7 +2780,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2564,7 +2795,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2641,7 +2872,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2656,7 +2887,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -2671,7 +2902,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2689,7 +2920,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -2704,7 +2935,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -2719,7 +2950,7 @@
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -2796,7 +3027,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2811,7 +3042,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -2826,7 +3057,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2844,7 +3075,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -2859,7 +3090,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -2874,7 +3105,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -2951,7 +3182,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2966,7 +3197,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -2981,7 +3212,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2999,7 +3230,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -3014,7 +3245,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -3029,7 +3260,7 @@
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -3106,7 +3337,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3121,7 +3352,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3136,7 +3367,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3154,7 +3385,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -3169,7 +3400,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -3184,7 +3415,7 @@
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -3261,7 +3492,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3276,7 +3507,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -3291,7 +3522,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3300,46 +3531,46 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="D20" s="7">
-        <v>51727</v>
+        <v>35400</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H20" s="7">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="I20" s="7">
-        <v>40554</v>
+        <v>28395</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M20" s="7">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="N20" s="7">
-        <v>92281</v>
+        <v>63795</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>19</v>
@@ -3351,10 +3582,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="D21" s="7">
-        <v>51727</v>
+        <v>35400</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -3366,10 +3597,10 @@
         <v>19</v>
       </c>
       <c r="H21" s="7">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="I21" s="7">
-        <v>40554</v>
+        <v>28395</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -3381,10 +3612,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="N21" s="7">
-        <v>92281</v>
+        <v>63795</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -3398,7 +3629,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3416,7 +3647,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -3431,7 +3662,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -3446,7 +3677,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3455,46 +3686,46 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>1618</v>
+        <v>15</v>
       </c>
       <c r="D23" s="7">
-        <v>1696771</v>
+        <v>16327</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H23" s="7">
-        <v>984</v>
+        <v>10</v>
       </c>
       <c r="I23" s="7">
-        <v>1058638</v>
+        <v>12159</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M23" s="7">
-        <v>2602</v>
+        <v>25</v>
       </c>
       <c r="N23" s="7">
-        <v>2755408</v>
+        <v>28486</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>19</v>
@@ -3506,63 +3737,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>15</v>
+      </c>
+      <c r="D24" s="7">
+        <v>16327</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="7">
+        <v>10</v>
+      </c>
+      <c r="I24" s="7">
+        <v>12159</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>25</v>
+      </c>
+      <c r="N24" s="7">
+        <v>28486</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="M25" s="7">
+        <v>0</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
         <v>1618</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D26" s="7">
         <v>1696771</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="7">
         <v>984</v>
       </c>
-      <c r="I24" s="7">
-        <v>1058638</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I26" s="7">
+        <v>1058637</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M26" s="7">
         <v>2602</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N26" s="7">
         <v>2755408</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>63</v>
+      <c r="O26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>1618</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1696771</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="7">
+        <v>984</v>
+      </c>
+      <c r="I27" s="7">
+        <v>1058637</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
+        <v>2602</v>
+      </c>
+      <c r="N27" s="7">
+        <v>2755408</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3575,8 +3962,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6711879-7DDA-4B13-82AD-4F2B0B8D0243}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37E6DF34-4610-41A6-B6D1-EE9F5115BC56}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3592,7 +3979,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3705,7 +4092,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3720,7 +4107,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3735,7 +4122,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3753,7 +4140,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -3768,7 +4155,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -3783,7 +4170,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -3860,7 +4247,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3890,7 +4277,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3908,7 +4295,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -3938,7 +4325,7 @@
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -4015,7 +4402,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4030,7 +4417,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4045,7 +4432,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4063,7 +4450,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -4078,7 +4465,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -4093,7 +4480,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -4170,7 +4557,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4185,7 +4572,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4200,7 +4587,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4218,7 +4605,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -4233,7 +4620,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -4248,7 +4635,7 @@
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -4325,7 +4712,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4340,7 +4727,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4355,7 +4742,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4373,7 +4760,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -4388,7 +4775,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -4403,7 +4790,7 @@
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -4480,7 +4867,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4495,7 +4882,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -4510,7 +4897,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4519,46 +4906,46 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="D20" s="7">
-        <v>76755</v>
+        <v>53730</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H20" s="7">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I20" s="7">
-        <v>50589</v>
+        <v>31344</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M20" s="7">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="N20" s="7">
-        <v>127344</v>
+        <v>85073</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>19</v>
@@ -4570,10 +4957,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="D21" s="7">
-        <v>76755</v>
+        <v>53730</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -4585,10 +4972,10 @@
         <v>19</v>
       </c>
       <c r="H21" s="7">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I21" s="7">
-        <v>50589</v>
+        <v>31344</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -4600,10 +4987,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="N21" s="7">
-        <v>127344</v>
+        <v>85073</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -4617,7 +5004,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4635,7 +5022,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4650,7 +5037,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -4665,7 +5052,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4674,46 +5061,46 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>1610</v>
+        <v>27</v>
       </c>
       <c r="D23" s="7">
-        <v>1704362</v>
+        <v>23025</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H23" s="7">
-        <v>1227</v>
+        <v>15</v>
       </c>
       <c r="I23" s="7">
-        <v>1245925</v>
+        <v>19246</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M23" s="7">
-        <v>2837</v>
+        <v>42</v>
       </c>
       <c r="N23" s="7">
-        <v>2950287</v>
+        <v>42271</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>19</v>
@@ -4725,63 +5112,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>27</v>
+      </c>
+      <c r="D24" s="7">
+        <v>23025</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="7">
+        <v>15</v>
+      </c>
+      <c r="I24" s="7">
+        <v>19246</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>42</v>
+      </c>
+      <c r="N24" s="7">
+        <v>42271</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="M25" s="7">
+        <v>0</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
         <v>1610</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D26" s="7">
         <v>1704362</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="7">
         <v>1227</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I26" s="7">
         <v>1245925</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M26" s="7">
         <v>2837</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N26" s="7">
         <v>2950287</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>63</v>
+      <c r="O26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>1610</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1704362</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="7">
+        <v>1227</v>
+      </c>
+      <c r="I27" s="7">
+        <v>1245925</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
+        <v>2837</v>
+      </c>
+      <c r="N27" s="7">
+        <v>2950287</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4794,8 +5337,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AD1620-D074-4804-BBA9-FDBC6A359EBC}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77189488-D420-4BE2-9D86-B18B204B86CB}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4811,7 +5354,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4915,46 +5458,46 @@
         <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>2613</v>
+        <v>2756</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>3681</v>
+        <v>3283</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>6294</v>
+        <v>6040</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4966,13 +5509,13 @@
         <v>170</v>
       </c>
       <c r="D5" s="7">
-        <v>375066</v>
+        <v>397231</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>17</v>
@@ -4981,13 +5524,13 @@
         <v>205</v>
       </c>
       <c r="I5" s="7">
-        <v>351276</v>
+        <v>309917</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -4996,16 +5539,16 @@
         <v>375</v>
       </c>
       <c r="N5" s="7">
-        <v>726342</v>
+        <v>707147</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>115</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5017,7 +5560,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -5032,7 +5575,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -5047,7 +5590,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -5070,46 +5613,46 @@
         <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>7777</v>
+        <v>8518</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>104</v>
+        <v>167</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>4221</v>
+        <v>4133</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
       </c>
       <c r="N7" s="7">
-        <v>11998</v>
+        <v>12651</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>155</v>
+        <v>72</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5121,46 +5664,46 @@
         <v>297</v>
       </c>
       <c r="D8" s="7">
-        <v>420619</v>
+        <v>415029</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>107</v>
+        <v>175</v>
       </c>
       <c r="H8" s="7">
         <v>456</v>
       </c>
       <c r="I8" s="7">
-        <v>494356</v>
+        <v>507371</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="M8" s="7">
         <v>753</v>
       </c>
       <c r="N8" s="7">
-        <v>914975</v>
+        <v>922400</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>164</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5172,7 +5715,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -5187,7 +5730,7 @@
         <v>460</v>
       </c>
       <c r="I9" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -5202,7 +5745,7 @@
         <v>762</v>
       </c>
       <c r="N9" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -5225,46 +5768,46 @@
         <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>3605</v>
+        <v>3608</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>165</v>
+        <v>90</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
       </c>
       <c r="I10" s="7">
-        <v>7990</v>
+        <v>7308</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
       </c>
       <c r="N10" s="7">
-        <v>11595</v>
+        <v>10915</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5276,46 +5819,46 @@
         <v>543</v>
       </c>
       <c r="D11" s="7">
-        <v>553647</v>
+        <v>532730</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>169</v>
+        <v>92</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>135</v>
+        <v>186</v>
       </c>
       <c r="H11" s="7">
         <v>834</v>
       </c>
       <c r="I11" s="7">
-        <v>575486</v>
+        <v>535160</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="M11" s="7">
         <v>1377</v>
       </c>
       <c r="N11" s="7">
-        <v>1129132</v>
+        <v>1067891</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5327,7 +5870,7 @@
         <v>546</v>
       </c>
       <c r="D12" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -5342,7 +5885,7 @@
         <v>846</v>
       </c>
       <c r="I12" s="7">
-        <v>583476</v>
+        <v>542468</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -5357,7 +5900,7 @@
         <v>1392</v>
       </c>
       <c r="N12" s="7">
-        <v>1140727</v>
+        <v>1078806</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -5380,46 +5923,46 @@
         <v>10</v>
       </c>
       <c r="D13" s="7">
-        <v>10159</v>
+        <v>9762</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>165</v>
+        <v>86</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
       </c>
       <c r="I13" s="7">
-        <v>6589</v>
+        <v>6066</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="M13" s="7">
         <v>22</v>
       </c>
       <c r="N13" s="7">
-        <v>16749</v>
+        <v>15828</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>179</v>
+        <v>31</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5431,46 +5974,46 @@
         <v>655</v>
       </c>
       <c r="D14" s="7">
-        <v>713831</v>
+        <v>878024</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>169</v>
+        <v>89</v>
       </c>
       <c r="H14" s="7">
         <v>1129</v>
       </c>
       <c r="I14" s="7">
-        <v>740672</v>
+        <v>706815</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="M14" s="7">
         <v>1784</v>
       </c>
       <c r="N14" s="7">
-        <v>1454503</v>
+        <v>1584839</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>188</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5482,7 +6025,7 @@
         <v>665</v>
       </c>
       <c r="D15" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -5497,7 +6040,7 @@
         <v>1141</v>
       </c>
       <c r="I15" s="7">
-        <v>747261</v>
+        <v>712881</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -5512,7 +6055,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1600667</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -5535,46 +6078,46 @@
         <v>8</v>
       </c>
       <c r="D16" s="7">
-        <v>6276</v>
+        <v>5813</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>30</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="H16" s="7">
         <v>24</v>
       </c>
       <c r="I16" s="7">
-        <v>13584</v>
+        <v>12350</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="M16" s="7">
         <v>32</v>
       </c>
       <c r="N16" s="7">
-        <v>19860</v>
+        <v>18162</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>89</v>
+        <v>208</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5586,13 +6129,13 @@
         <v>654</v>
       </c>
       <c r="D17" s="7">
-        <v>592810</v>
+        <v>554424</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>33</v>
@@ -5601,31 +6144,31 @@
         <v>976</v>
       </c>
       <c r="I17" s="7">
-        <v>579992</v>
+        <v>532537</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="M17" s="7">
         <v>1630</v>
       </c>
       <c r="N17" s="7">
-        <v>1172802</v>
+        <v>1086962</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>92</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5637,7 +6180,7 @@
         <v>662</v>
       </c>
       <c r="D18" s="7">
-        <v>599086</v>
+        <v>560237</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -5652,7 +6195,7 @@
         <v>1000</v>
       </c>
       <c r="I18" s="7">
-        <v>593576</v>
+        <v>544887</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -5667,7 +6210,7 @@
         <v>1662</v>
       </c>
       <c r="N18" s="7">
-        <v>1192662</v>
+        <v>1105124</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -5687,49 +6230,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D19" s="7">
-        <v>5561</v>
+        <v>2888</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="H19" s="7">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="I19" s="7">
-        <v>18480</v>
+        <v>6721</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>205</v>
+        <v>169</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="M19" s="7">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="N19" s="7">
-        <v>24041</v>
+        <v>9609</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>173</v>
+        <v>221</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5738,49 +6281,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>1019</v>
+        <v>565</v>
       </c>
       <c r="D20" s="7">
-        <v>692193</v>
+        <v>365277</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="H20" s="7">
-        <v>1673</v>
+        <v>814</v>
       </c>
       <c r="I20" s="7">
-        <v>1006535</v>
+        <v>601647</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="M20" s="7">
-        <v>2692</v>
+        <v>1379</v>
       </c>
       <c r="N20" s="7">
-        <v>1698729</v>
+        <v>966924</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5789,10 +6332,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>368165</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -5804,10 +6347,10 @@
         <v>19</v>
       </c>
       <c r="H21" s="7">
-        <v>1705</v>
+        <v>827</v>
       </c>
       <c r="I21" s="7">
-        <v>1025015</v>
+        <v>608368</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -5819,10 +6362,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>2733</v>
+        <v>1397</v>
       </c>
       <c r="N21" s="7">
-        <v>1722770</v>
+        <v>976533</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -5836,55 +6379,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="D22" s="7">
-        <v>35992</v>
+        <v>2312</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>215</v>
+        <v>139</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>179</v>
+        <v>25</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>216</v>
+        <v>138</v>
       </c>
       <c r="H22" s="7">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="I22" s="7">
-        <v>54545</v>
+        <v>9818</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="M22" s="7">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="N22" s="7">
-        <v>90537</v>
+        <v>12130</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>168</v>
+        <v>234</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5893,49 +6436,49 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>3338</v>
+        <v>454</v>
       </c>
       <c r="D23" s="7">
-        <v>3348166</v>
+        <v>280447</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>222</v>
+        <v>142</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>223</v>
+        <v>141</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>188</v>
+        <v>28</v>
       </c>
       <c r="H23" s="7">
-        <v>5273</v>
+        <v>859</v>
       </c>
       <c r="I23" s="7">
-        <v>3748317</v>
+        <v>414576</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="M23" s="7">
-        <v>8611</v>
+        <v>1313</v>
       </c>
       <c r="N23" s="7">
-        <v>7096482</v>
+        <v>695023</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>172</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5944,63 +6487,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>458</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="7">
+        <v>878</v>
+      </c>
+      <c r="I24" s="7">
+        <v>424394</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1336</v>
+      </c>
+      <c r="N24" s="7">
+        <v>707153</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>37</v>
+      </c>
+      <c r="D25" s="7">
+        <v>35657</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="H25" s="7">
+        <v>86</v>
+      </c>
+      <c r="I25" s="7">
+        <v>49678</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="M25" s="7">
+        <v>123</v>
+      </c>
+      <c r="N25" s="7">
+        <v>85335</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3338</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3423163</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H26" s="7">
+        <v>5273</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3608024</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="M26" s="7">
+        <v>8611</v>
+      </c>
+      <c r="N26" s="7">
+        <v>7031187</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3375</v>
       </c>
-      <c r="D24" s="7">
-        <v>3384158</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3458820</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="7">
         <v>5359</v>
       </c>
-      <c r="I24" s="7">
-        <v>3802862</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3657702</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
         <v>8734</v>
       </c>
-      <c r="N24" s="7">
-        <v>7187019</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>63</v>
+      <c r="N27" s="7">
+        <v>7116522</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
